--- a/supplementary-material/inputs/prisma_checklist.xlsx
+++ b/supplementary-material/inputs/prisma_checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dtay0016/dev/youth-homelessness-review/supplementary-material/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31760C5F-028C-6A49-A3EF-497808F59925}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998151AE-6F54-064E-92C9-0C95CD657A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{A1839663-239A-1A4B-89C5-AE8F063D74BB}"/>
   </bookViews>
@@ -351,14 +351,7 @@
     <t>Article section: "Objectives"</t>
   </si>
   <si>
-    <t>Supplementary material: @tbl-yh-review-search-terms and @tbl-yh-review-grey-search.</t>
-  </si>
-  <si>
     <t>Supplementary material: @sec-data-extraction</t>
-  </si>
-  <si>
-    <t>Article section: "Selection criteria"
-Supplementary material: @tbl-yh-review-picoss</t>
   </si>
   <si>
     <t>Article section "Search methods"
@@ -438,6 +431,13 @@
   </si>
   <si>
     <t>Supplementary material: @sec-excluded-studies</t>
+  </si>
+  <si>
+    <t>Supplementary material: @supptbl-yh-review-search-terms and @supptbl-yh-review-grey-search.</t>
+  </si>
+  <si>
+    <t>Article section: "Selection criteria"
+Supplementary material: @supptbl-yh-review-picoss</t>
   </si>
 </sst>
 </file>
@@ -703,7 +703,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -778,6 +778,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1099,8 +1102,8 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1221,8 +1224,8 @@
       <c r="C10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="12" t="s">
-        <v>106</v>
+      <c r="D10" s="26" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="66" thickBot="1" x14ac:dyDescent="0.25">
@@ -1236,7 +1239,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1249,8 +1252,8 @@
       <c r="C12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="17" t="s">
-        <v>104</v>
+      <c r="D12" s="26" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:4" ht="79" thickBot="1" x14ac:dyDescent="0.25">
@@ -1264,7 +1267,7 @@
         <v>23</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
     <row r="14" spans="1:4" ht="92" thickBot="1" x14ac:dyDescent="0.25">
@@ -1278,7 +1281,7 @@
         <v>25</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:4" ht="79" thickBot="1" x14ac:dyDescent="0.25">
@@ -1292,7 +1295,7 @@
         <v>28</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:4" ht="66" thickBot="1" x14ac:dyDescent="0.25">
@@ -1306,7 +1309,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="79" thickBot="1" x14ac:dyDescent="0.25">
@@ -1320,7 +1323,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1334,7 +1337,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="66" thickBot="1" x14ac:dyDescent="0.25">
@@ -1348,7 +1351,7 @@
         <v>37</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1362,7 +1365,7 @@
         <v>39</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -1375,8 +1378,8 @@
       <c r="C21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="17" t="s">
-        <v>115</v>
+      <c r="D21" s="26" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="79" thickBot="1" x14ac:dyDescent="0.25">
@@ -1390,7 +1393,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1404,7 +1407,7 @@
         <v>45</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -1432,7 +1435,7 @@
         <v>49</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1446,7 +1449,7 @@
         <v>51</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1468,7 +1471,7 @@
         <v>55</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1482,7 +1485,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1496,7 +1499,7 @@
         <v>59</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="31" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1510,7 +1513,7 @@
         <v>61</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="66" thickBot="1" x14ac:dyDescent="0.25">
@@ -1523,8 +1526,8 @@
       <c r="C32" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="17" t="s">
-        <v>119</v>
+      <c r="D32" s="26" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1538,7 +1541,7 @@
         <v>66</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="79" thickBot="1" x14ac:dyDescent="0.25">
@@ -1552,7 +1555,7 @@
         <v>68</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -1566,7 +1569,7 @@
         <v>70</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1580,7 +1583,7 @@
         <v>72</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1594,7 +1597,7 @@
         <v>74</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1630,7 +1633,7 @@
         <v>79</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -1644,7 +1647,7 @@
         <v>81</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -1658,7 +1661,7 @@
         <v>83</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1680,7 +1683,7 @@
         <v>87</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1694,7 +1697,7 @@
         <v>89</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1708,7 +1711,7 @@
         <v>91</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1722,7 +1725,7 @@
         <v>93</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -1736,7 +1739,7 @@
         <v>95</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="49" spans="1:4" ht="209" thickBot="1" x14ac:dyDescent="0.25">
@@ -1750,7 +1753,7 @@
         <v>97</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>

--- a/supplementary-material/inputs/prisma_checklist.xlsx
+++ b/supplementary-material/inputs/prisma_checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dtay0016/dev/youth-homelessness-review/supplementary-material/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{998151AE-6F54-064E-92C9-0C95CD657A00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CF34CD-61AF-B148-9D7C-1F0F1532BE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{A1839663-239A-1A4B-89C5-AE8F063D74BB}"/>
   </bookViews>

--- a/supplementary-material/inputs/prisma_checklist.xlsx
+++ b/supplementary-material/inputs/prisma_checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dtay0016/dev/youth-homelessness-review/supplementary-material/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02CF34CD-61AF-B148-9D7C-1F0F1532BE85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EE538C-32F6-BE40-9F02-E1851FAD01D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{A1839663-239A-1A4B-89C5-AE8F063D74BB}"/>
   </bookViews>
@@ -762,6 +762,9 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -778,9 +781,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1102,8 +1102,8 @@
   </sheetPr>
   <dimension ref="A1:D50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44:A46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1127,11 +1127,11 @@
       </c>
     </row>
     <row r="2" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1149,11 +1149,11 @@
       </c>
     </row>
     <row r="4" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1171,11 +1171,11 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -1207,11 +1207,11 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1224,7 +1224,7 @@
       <c r="C10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="26" t="s">
+      <c r="D10" s="20" t="s">
         <v>129</v>
       </c>
     </row>
@@ -1252,7 +1252,7 @@
       <c r="C12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="26" t="s">
+      <c r="D12" s="20" t="s">
         <v>128</v>
       </c>
     </row>
@@ -1378,7 +1378,7 @@
       <c r="C21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="26" t="s">
+      <c r="D21" s="20" t="s">
         <v>113</v>
       </c>
     </row>
@@ -1453,11 +1453,11 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:4" ht="53" thickBot="1" x14ac:dyDescent="0.25">
@@ -1526,7 +1526,7 @@
       <c r="C32" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="26" t="s">
+      <c r="D32" s="20" t="s">
         <v>117</v>
       </c>
     </row>
@@ -1615,11 +1615,11 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
       <c r="D39" s="19"/>
     </row>
     <row r="40" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -1665,11 +1665,11 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="19"/>
     </row>
     <row r="44" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">

--- a/supplementary-material/inputs/prisma_checklist.xlsx
+++ b/supplementary-material/inputs/prisma_checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11102"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11116"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dtay0016/dev/youth-homelessness-review/supplementary-material/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{03EE538C-32F6-BE40-9F02-E1851FAD01D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB034CAF-FBB1-0D44-B4CE-E58E4329D627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17540" xr2:uid="{A1839663-239A-1A4B-89C5-AE8F063D74BB}"/>
+    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{A1839663-239A-1A4B-89C5-AE8F063D74BB}"/>
   </bookViews>
   <sheets>
     <sheet name="prisma" sheetId="21" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="132">
   <si>
     <t xml:space="preserve">Section and Topic </t>
   </si>
@@ -336,43 +336,16 @@
     <t>In the article title</t>
   </si>
   <si>
-    <t>Checklist satisfied</t>
-  </si>
-  <si>
     <t>Discussion</t>
   </si>
   <si>
     <t>Not applicable</t>
-  </si>
-  <si>
-    <t>Article section: "Why is it important to do this review?"</t>
-  </si>
-  <si>
-    <t>Article section: "Objectives"</t>
-  </si>
-  <si>
-    <t>Supplementary material: @sec-data-extraction</t>
-  </si>
-  <si>
-    <t>Article section "Search methods"
-Supplementary material: @sec-search-methods.</t>
-  </si>
-  <si>
-    <t>Article section: "Data collection and extraction"
-Supplementary material: @sec-data-collection</t>
-  </si>
-  <si>
-    <t>Article section: "Data collection and extraction"
-Supplementary material: @sec-data-extraction</t>
   </si>
   <si>
     <t>Article section: "Assessment of bias and confidence in results"
 Supplementary material: @sec-risk-of-bias</t>
   </si>
   <si>
-    <t>Article section: "Measures of treatment effect"</t>
-  </si>
-  <si>
     <t>Article section: "Synthesis of results"</t>
   </si>
   <si>
@@ -383,68 +356,98 @@
     <t>Not applicable, quantitative syntheses was not undertaken.</t>
   </si>
   <si>
-    <t>Not applicable, quantitative syntheses was not undertaken. Individual results are presented in Tables 3-9 in the Article</t>
-  </si>
-  <si>
     <t>Article: Figure 1</t>
   </si>
   <si>
     <t>Article: Table 2</t>
   </si>
   <si>
+    <t>Article: Tables 3, 4, 5, 6, 7, 8 &amp; 9</t>
+  </si>
+  <si>
+    <t>Supplementary material: @supptbl-yh-review-search-terms and @supptbl-yh-review-grey-search.</t>
+  </si>
+  <si>
+    <t>Abstract is fully compliant</t>
+  </si>
+  <si>
+    <t>Article section: 'Objectives'</t>
+  </si>
+  <si>
+    <t>Article section: 'Why is it important to do this review?'</t>
+  </si>
+  <si>
+    <t>Article section: ‘Selection criteria’ and Table 1</t>
+  </si>
+  <si>
+    <t>Article section: 'Data collection and extraction'</t>
+  </si>
+  <si>
+    <t>Article section 'Search methods'
+Supplementary material: @sec-search-methods.</t>
+  </si>
+  <si>
+    <t>Article section: "Data collection and extraction"</t>
+  </si>
+  <si>
+    <t>Supplementary material: @supptbl-yh-review-de-outcome-level</t>
+  </si>
+  <si>
+    <t>Supplementary material: @supptbl-yh-review-de-study-level</t>
+  </si>
+  <si>
+    <t>Article section: 'Assessment of risk of bias'</t>
+  </si>
+  <si>
+    <t>Article section: 'Measures of treatment effect'</t>
+  </si>
+  <si>
+    <t>Article section: 'Synthesis of results'</t>
+  </si>
+  <si>
+    <t>Not applicable, quantitative synthesis was not undertaken.</t>
+  </si>
+  <si>
+    <t>Article section: 'Risk of bias assessment'</t>
+  </si>
+  <si>
+    <t>Supplementary material: @supptbl-yh-reports-excluded-studies</t>
+  </si>
+  <si>
     <t>Article: Figure 2 and Figure 3
-Supplementary material: @sec-risk-of-bias</t>
-  </si>
-  <si>
-    <t>Article: Tables 3, 4, 5, 6, 7, 8 &amp; 9</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Article: Provided in discussion of results for each outcome. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">Article section: "Main results" </t>
-  </si>
-  <si>
-    <t>Article section: "Implications of these results"</t>
-  </si>
-  <si>
-    <t>Article section: "Limitations"</t>
-  </si>
-  <si>
-    <t>Article section: "Methods"</t>
-  </si>
-  <si>
-    <t>Supplementary material: @sec-deviations</t>
-  </si>
-  <si>
-    <t>Article section: "Grant numbers and/or funding information"</t>
-  </si>
-  <si>
-    <t>Article section: "Conflict of interests, if any"</t>
-  </si>
-  <si>
-    <t>Data collection forms — Available as read only in supplementary material: @sec-data-extraction or in the Github repository for this review
-Data extracted from included studies — Available in the Github repository for this review
-Data used for all analyses: — Available in the Github repository for this review
-Analytic code — Available as read only in supplementary material: @sec-code-implementation or in the Github repository for this review
-Other materials used in the review: All material required to replicated this review is available in the Github repository</t>
-  </si>
-  <si>
-    <t>Supplementary material: @sec-excluded-studies</t>
-  </si>
-  <si>
-    <t>Supplementary material: @supptbl-yh-review-search-terms and @supptbl-yh-review-grey-search.</t>
-  </si>
-  <si>
-    <t>Article section: "Selection criteria"
-Supplementary material: @supptbl-yh-review-picoss</t>
+Supplementary material: @supptbl-yh-review-rob2-template &amp; @supptbl-yh-review-robins-i-template</t>
+  </si>
+  <si>
+    <t>Article section: ‘Discussion and Applications to Practice’</t>
+  </si>
+  <si>
+    <t>Article section: ‘Impact of included interventions’</t>
+  </si>
+  <si>
+    <t>Article section: 'Method'</t>
+  </si>
+  <si>
+    <t>Article section: ‘Deviations from the protocol’</t>
+  </si>
+  <si>
+    <t>Article section: 'Declaration of conflicting interest'</t>
+  </si>
+  <si>
+    <t>Article section: 'Funding statement'</t>
+  </si>
+  <si>
+    <t>Data collection forms: available in supplementary material and Github repository
+Data extracted from included studies: available in Github repository 
+Data used for all analyses: available in Github repository 
+Analytic code: in supplementary material and Github repository 
+Other materials used in the review: all material required to replicate this review is available in the Github repository</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -489,6 +492,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF99CC99"/>
+      <name val="Menlo"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -762,9 +771,6 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -783,6 +789,7 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1100,10 +1107,10 @@
   <sheetPr>
     <tabColor rgb="FF00B050"/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A45" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:A46"/>
+    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+      <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1112,7 +1119,7 @@
     <col min="4" max="4" width="45.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="28" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="28" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,15 +1133,15 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="24" t="s">
+    <row r="2" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
+      <c r="B2" s="24"/>
+      <c r="C2" s="25"/>
       <c r="D2" s="4"/>
     </row>
-    <row r="3" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
@@ -1148,15 +1155,15 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+    <row r="4" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="25"/>
-      <c r="C4" s="26"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="25"/>
       <c r="D4" s="4"/>
     </row>
-    <row r="5" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>8</v>
       </c>
@@ -1167,18 +1174,18 @@
         <v>9</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="24" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="25"/>
-      <c r="C6" s="26"/>
+      <c r="B6" s="24"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="4"/>
     </row>
-    <row r="7" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>11</v>
       </c>
@@ -1189,10 +1196,10 @@
         <v>12</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>13</v>
       </c>
@@ -1203,18 +1210,18 @@
         <v>14</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="25"/>
-      <c r="C9" s="26"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="4"/>
     </row>
-    <row r="10" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>16</v>
       </c>
@@ -1224,11 +1231,11 @@
       <c r="C10" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D10" s="20" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" ht="66" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D10" s="17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="66" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>18</v>
       </c>
@@ -1239,10 +1246,10 @@
         <v>19</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9" t="s">
         <v>20</v>
       </c>
@@ -1252,11 +1259,11 @@
       <c r="C12" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="D12" s="20" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" ht="79" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="17" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="79" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>22</v>
       </c>
@@ -1267,10 +1274,10 @@
         <v>23</v>
       </c>
       <c r="D13" s="17" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" ht="92" thickBot="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="92" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>24</v>
       </c>
@@ -1281,10 +1288,10 @@
         <v>25</v>
       </c>
       <c r="D14" s="17" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" ht="79" thickBot="1" x14ac:dyDescent="0.25">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="79" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>26</v>
       </c>
@@ -1295,10 +1302,11 @@
         <v>28</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" ht="66" thickBot="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+      <c r="E15" s="26"/>
+    </row>
+    <row r="16" spans="1:5" ht="66" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
         <v>26</v>
       </c>
@@ -1309,7 +1317,7 @@
         <v>30</v>
       </c>
       <c r="D16" s="17" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:4" ht="79" thickBot="1" x14ac:dyDescent="0.25">
@@ -1323,7 +1331,7 @@
         <v>32</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1337,7 +1345,7 @@
         <v>34</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="66" thickBot="1" x14ac:dyDescent="0.25">
@@ -1351,7 +1359,7 @@
         <v>37</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1365,7 +1373,7 @@
         <v>39</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -1378,8 +1386,8 @@
       <c r="C21" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="D21" s="20" t="s">
-        <v>113</v>
+      <c r="D21" s="17" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="22" spans="1:4" ht="79" thickBot="1" x14ac:dyDescent="0.25">
@@ -1393,7 +1401,7 @@
         <v>43</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="23" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1407,7 +1415,7 @@
         <v>45</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
     </row>
     <row r="24" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -1421,7 +1429,7 @@
         <v>47</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>101</v>
+        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1435,7 +1443,7 @@
         <v>49</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>108</v>
+        <v>122</v>
       </c>
     </row>
     <row r="26" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1449,15 +1457,15 @@
         <v>51</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="22"/>
-      <c r="C27" s="23"/>
+      <c r="B27" s="21"/>
+      <c r="C27" s="22"/>
       <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:4" ht="53" thickBot="1" x14ac:dyDescent="0.25">
@@ -1471,7 +1479,7 @@
         <v>55</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
     </row>
     <row r="29" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1485,7 +1493,7 @@
         <v>57</v>
       </c>
       <c r="D29" s="16" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
     </row>
     <row r="30" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1499,10 +1507,10 @@
         <v>59</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" ht="53" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>60</v>
       </c>
@@ -1513,7 +1521,7 @@
         <v>61</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32" spans="1:4" ht="66" thickBot="1" x14ac:dyDescent="0.25">
@@ -1526,8 +1534,8 @@
       <c r="C32" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="D32" s="20" t="s">
-        <v>117</v>
+      <c r="D32" s="17" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="33" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1541,7 +1549,7 @@
         <v>66</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>118</v>
+        <v>126</v>
       </c>
     </row>
     <row r="34" spans="1:4" ht="79" thickBot="1" x14ac:dyDescent="0.25">
@@ -1555,7 +1563,7 @@
         <v>68</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="35" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -1569,7 +1577,7 @@
         <v>70</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1583,7 +1591,7 @@
         <v>72</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="37" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1597,7 +1605,7 @@
         <v>74</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
     </row>
     <row r="38" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1611,20 +1619,20 @@
         <v>76</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="20" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="22"/>
-      <c r="C39" s="23"/>
+      <c r="B39" s="21"/>
+      <c r="C39" s="22"/>
       <c r="D39" s="19"/>
     </row>
     <row r="40" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A40" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B40" s="10" t="s">
         <v>78</v>
@@ -1633,12 +1641,12 @@
         <v>79</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A41" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B41" s="10" t="s">
         <v>80</v>
@@ -1647,12 +1655,12 @@
         <v>81</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>120</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A42" s="18" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>82</v>
@@ -1661,15 +1669,15 @@
         <v>83</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="24" t="s">
+      <c r="A43" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="25"/>
-      <c r="C43" s="26"/>
+      <c r="B43" s="24"/>
+      <c r="C43" s="25"/>
       <c r="D43" s="19"/>
     </row>
     <row r="44" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1683,7 +1691,7 @@
         <v>87</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="45" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1697,7 +1705,7 @@
         <v>89</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="46" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1711,7 +1719,7 @@
         <v>91</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>123</v>
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1725,7 +1733,7 @@
         <v>93</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
     </row>
     <row r="48" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -1739,10 +1747,10 @@
         <v>95</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" ht="209" thickBot="1" x14ac:dyDescent="0.25">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" ht="105" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A49" s="14" t="s">
         <v>96</v>
       </c>
@@ -1753,7 +1761,7 @@
         <v>97</v>
       </c>
       <c r="D49" s="16" t="s">
-        <v>126</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:4" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>

--- a/supplementary-material/inputs/prisma_checklist.xlsx
+++ b/supplementary-material/inputs/prisma_checklist.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dtay0016/dev/youth-homelessness-review/supplementary-material/inputs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB034CAF-FBB1-0D44-B4CE-E58E4329D627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63241710-808D-5144-9DD9-4ACFB7DDF829}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="740" windowWidth="30240" windowHeight="18900" xr2:uid="{A1839663-239A-1A4B-89C5-AE8F063D74BB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{A1839663-239A-1A4B-89C5-AE8F063D74BB}"/>
   </bookViews>
   <sheets>
     <sheet name="prisma" sheetId="21" r:id="rId1"/>
@@ -771,6 +771,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -789,7 +790,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1109,7 +1109,7 @@
   </sheetPr>
   <dimension ref="A1:E50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="150" zoomScaleNormal="150" workbookViewId="0">
       <selection activeCell="C52" sqref="C52"/>
     </sheetView>
   </sheetViews>
@@ -1134,11 +1134,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>4</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="25"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="4"/>
     </row>
     <row r="3" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1156,11 +1156,11 @@
       </c>
     </row>
     <row r="4" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="23" t="s">
+      <c r="A4" s="24" t="s">
         <v>7</v>
       </c>
-      <c r="B4" s="24"/>
-      <c r="C4" s="25"/>
+      <c r="B4" s="25"/>
+      <c r="C4" s="26"/>
       <c r="D4" s="4"/>
     </row>
     <row r="5" spans="1:5" ht="17" thickBot="1" x14ac:dyDescent="0.25">
@@ -1178,11 +1178,11 @@
       </c>
     </row>
     <row r="6" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="23" t="s">
+      <c r="A6" s="24" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="25"/>
+      <c r="B6" s="25"/>
+      <c r="C6" s="26"/>
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:5" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -1214,11 +1214,11 @@
       </c>
     </row>
     <row r="9" spans="1:5" ht="18" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="23" t="s">
+      <c r="A9" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="B9" s="24"/>
-      <c r="C9" s="25"/>
+      <c r="B9" s="25"/>
+      <c r="C9" s="26"/>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:5" ht="40" thickBot="1" x14ac:dyDescent="0.25">
@@ -1304,7 +1304,7 @@
       <c r="D15" s="17" t="s">
         <v>116</v>
       </c>
-      <c r="E15" s="26"/>
+      <c r="E15" s="20"/>
     </row>
     <row r="16" spans="1:5" ht="66" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9" t="s">
@@ -1461,11 +1461,11 @@
       </c>
     </row>
     <row r="27" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="20" t="s">
+      <c r="A27" s="21" t="s">
         <v>52</v>
       </c>
-      <c r="B27" s="21"/>
-      <c r="C27" s="22"/>
+      <c r="B27" s="22"/>
+      <c r="C27" s="23"/>
       <c r="D27" s="19"/>
     </row>
     <row r="28" spans="1:4" ht="53" thickBot="1" x14ac:dyDescent="0.25">
@@ -1623,11 +1623,11 @@
       </c>
     </row>
     <row r="39" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="20" t="s">
+      <c r="A39" s="21" t="s">
         <v>77</v>
       </c>
-      <c r="B39" s="21"/>
-      <c r="C39" s="22"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="23"/>
       <c r="D39" s="19"/>
     </row>
     <row r="40" spans="1:4" ht="27" thickBot="1" x14ac:dyDescent="0.25">
@@ -1673,11 +1673,11 @@
       </c>
     </row>
     <row r="43" spans="1:4" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="23" t="s">
+      <c r="A43" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B43" s="24"/>
-      <c r="C43" s="25"/>
+      <c r="B43" s="25"/>
+      <c r="C43" s="26"/>
       <c r="D43" s="19"/>
     </row>
     <row r="44" spans="1:4" ht="40" thickBot="1" x14ac:dyDescent="0.25">
